--- a/latin-parallel/psalms-latin/=progress-latin.xlsx
+++ b/latin-parallel/psalms-latin/=progress-latin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cojor\Google Drive\Sacred Music - Jorgensen\santissimo-nome\latin-parallel\psalms-latin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2801E3D8-E8D3-40A9-84B0-35AA264C4787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33009A5E-7549-4CC2-B266-4E55A444CFFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52230" yWindow="3840" windowWidth="8715" windowHeight="13260" xr2:uid="{C023B4B4-53A5-4D58-9310-1C65202DBCED}"/>
+    <workbookView xWindow="41655" yWindow="6075" windowWidth="11940" windowHeight="13260" xr2:uid="{C023B4B4-53A5-4D58-9310-1C65202DBCED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1077,7 +1077,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1099,6 +1099,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,7 +1173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1183,6 +1189,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,7 +1510,7 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1529,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="59.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1535,30 +1544,30 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1590,7 +1599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1702,7 +1711,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
@@ -1730,7 +1739,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
@@ -1744,7 +1753,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>65</v>
       </c>
@@ -1800,7 +1809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>81</v>
       </c>
@@ -1814,7 +1823,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>85</v>
       </c>
@@ -1828,7 +1837,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>89</v>
       </c>
@@ -1856,7 +1865,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>97</v>
       </c>
@@ -1912,7 +1921,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>113</v>
       </c>
@@ -1926,7 +1935,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>117</v>
       </c>
@@ -1948,7 +1957,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" ht="59.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -1962,7 +1971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>5</v>
       </c>
@@ -2018,7 +2027,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -2046,7 +2055,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>29</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>33</v>
       </c>
@@ -2116,7 +2125,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
@@ -2130,7 +2139,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
@@ -2172,7 +2181,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
@@ -2228,7 +2237,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>81</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>85</v>
       </c>
@@ -2270,7 +2279,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>93</v>
       </c>
@@ -2284,7 +2293,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>97</v>
       </c>
@@ -2354,7 +2363,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
@@ -2376,7 +2385,7 @@
       <c r="C63" s="4"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" ht="59.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -2404,7 +2413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>9</v>
       </c>
@@ -2446,7 +2455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
@@ -2488,7 +2497,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>33</v>
       </c>
@@ -2544,7 +2553,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>49</v>
       </c>
@@ -2558,7 +2567,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>53</v>
       </c>
@@ -2600,7 +2609,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>65</v>
       </c>
@@ -2656,7 +2665,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>81</v>
       </c>
@@ -2670,7 +2679,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>85</v>
       </c>
@@ -2754,7 +2763,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>113</v>
       </c>
@@ -2768,7 +2777,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>117</v>
       </c>
@@ -2790,7 +2799,7 @@
       <c r="C93" s="4"/>
       <c r="D93" s="5"/>
     </row>
-    <row r="94" spans="1:4" ht="59.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -2860,7 +2869,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>21</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>33</v>
       </c>
@@ -2944,7 +2953,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>45</v>
       </c>
@@ -2958,7 +2967,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>49</v>
       </c>
@@ -2972,7 +2981,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>53</v>
       </c>
@@ -3000,7 +3009,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>61</v>
       </c>
@@ -3014,7 +3023,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>65</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>81</v>
       </c>
@@ -3084,7 +3093,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>85</v>
       </c>
@@ -3126,7 +3135,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>93</v>
       </c>
@@ -3140,7 +3149,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>97</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>101</v>
       </c>
@@ -3210,7 +3219,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>117</v>
       </c>
